--- a/natmiOut/OldD4/LR-pairs_lrc2p/Tgfb1-Eng.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Tgfb1-Eng.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.4479704466856</v>
+        <v>50.950239</v>
       </c>
       <c r="H2">
-        <v>48.4479704466856</v>
+        <v>152.850717</v>
       </c>
       <c r="I2">
-        <v>0.1584488244220327</v>
+        <v>0.1520006117784607</v>
       </c>
       <c r="J2">
-        <v>0.1584488244220327</v>
+        <v>0.1540898474582185</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>202.815059956598</v>
+        <v>203.934102</v>
       </c>
       <c r="N2">
-        <v>202.815059956598</v>
+        <v>611.802306</v>
       </c>
       <c r="O2">
-        <v>0.7227456569861413</v>
+        <v>0.7110513071461264</v>
       </c>
       <c r="P2">
-        <v>0.7227456569861413</v>
+        <v>0.7295999567593805</v>
       </c>
       <c r="Q2">
-        <v>9825.978030920029</v>
+        <v>10390.49123715038</v>
       </c>
       <c r="R2">
-        <v>9825.978030920029</v>
+        <v>93514.42113435341</v>
       </c>
       <c r="S2">
-        <v>0.1145181997055838</v>
+        <v>0.1080802336920854</v>
       </c>
       <c r="T2">
-        <v>0.1145181997055838</v>
+        <v>0.1124239460425757</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>48.4479704466856</v>
+        <v>50.950239</v>
       </c>
       <c r="H3">
-        <v>48.4479704466856</v>
+        <v>152.850717</v>
       </c>
       <c r="I3">
-        <v>0.1584488244220327</v>
+        <v>0.1520006117784607</v>
       </c>
       <c r="J3">
-        <v>0.1584488244220327</v>
+        <v>0.1540898474582185</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>44.9690538972188</v>
+        <v>48.770495</v>
       </c>
       <c r="N3">
-        <v>44.9690538972188</v>
+        <v>146.311485</v>
       </c>
       <c r="O3">
-        <v>0.1602503700166338</v>
+        <v>0.1700467154822082</v>
       </c>
       <c r="P3">
-        <v>0.1602503700166338</v>
+        <v>0.174482593613174</v>
       </c>
       <c r="Q3">
-        <v>2178.659394227868</v>
+        <v>2484.868376398305</v>
       </c>
       <c r="R3">
-        <v>2178.659394227868</v>
+        <v>22363.81538758475</v>
       </c>
       <c r="S3">
-        <v>0.02539148274233138</v>
+        <v>0.02584720478421349</v>
       </c>
       <c r="T3">
-        <v>0.02539148274233138</v>
+        <v>0.02688599623396832</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>48.4479704466856</v>
+        <v>50.950239</v>
       </c>
       <c r="H4">
-        <v>48.4479704466856</v>
+        <v>152.850717</v>
       </c>
       <c r="I4">
-        <v>0.1584488244220327</v>
+        <v>0.1520006117784607</v>
       </c>
       <c r="J4">
-        <v>0.1584488244220327</v>
+        <v>0.1540898474582185</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.6495158483243</v>
+        <v>7.225689</v>
       </c>
       <c r="N4">
-        <v>6.6495158483243</v>
+        <v>21.677067</v>
       </c>
       <c r="O4">
-        <v>0.02369601498757222</v>
+        <v>0.02519360694505809</v>
       </c>
       <c r="P4">
-        <v>0.02369601498757222</v>
+        <v>0.02585081322964185</v>
       </c>
       <c r="Q4">
-        <v>322.1555473043832</v>
+        <v>368.150581489671</v>
       </c>
       <c r="R4">
-        <v>322.1555473043832</v>
+        <v>3313.355233407039</v>
       </c>
       <c r="S4">
-        <v>0.003754605718267686</v>
+        <v>0.003829443668554907</v>
       </c>
       <c r="T4">
-        <v>0.003754605718267686</v>
+        <v>0.00398334786722641</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>48.4479704466856</v>
+        <v>50.950239</v>
       </c>
       <c r="H5">
-        <v>48.4479704466856</v>
+        <v>152.850717</v>
       </c>
       <c r="I5">
-        <v>0.1584488244220327</v>
+        <v>0.1520006117784607</v>
       </c>
       <c r="J5">
-        <v>0.1584488244220327</v>
+        <v>0.1540898474582185</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.72864033924603</v>
+        <v>5.001688666666666</v>
       </c>
       <c r="N5">
-        <v>4.72864033924603</v>
+        <v>15.005066</v>
       </c>
       <c r="O5">
-        <v>0.01685084070862836</v>
+        <v>0.01743924743087499</v>
       </c>
       <c r="P5">
-        <v>0.01685084070862836</v>
+        <v>0.01789417169142159</v>
       </c>
       <c r="Q5">
-        <v>229.093027408797</v>
+        <v>254.837232970258</v>
       </c>
       <c r="R5">
-        <v>229.093027408797</v>
+        <v>2293.535096732322</v>
       </c>
       <c r="S5">
-        <v>0.002669995900805095</v>
+        <v>0.002650776278448948</v>
       </c>
       <c r="T5">
-        <v>0.002669995900805095</v>
+        <v>0.002757310186322325</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>48.4479704466856</v>
+        <v>50.950239</v>
       </c>
       <c r="H6">
-        <v>48.4479704466856</v>
+        <v>152.850717</v>
       </c>
       <c r="I6">
-        <v>0.1584488244220327</v>
+        <v>0.1520006117784607</v>
       </c>
       <c r="J6">
-        <v>0.1584488244220327</v>
+        <v>0.1540898474582185</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.4552030574335</v>
+        <v>21.8744765</v>
       </c>
       <c r="N6">
-        <v>21.4552030574335</v>
+        <v>43.748953</v>
       </c>
       <c r="O6">
-        <v>0.07645711730102409</v>
+        <v>0.07626912299573232</v>
       </c>
       <c r="P6">
-        <v>0.07645711730102409</v>
+        <v>0.05217246470638207</v>
       </c>
       <c r="Q6">
-        <v>1039.461043654177</v>
+        <v>1114.509805674884</v>
       </c>
       <c r="R6">
-        <v>1039.461043654177</v>
+        <v>6687.058834049301</v>
       </c>
       <c r="S6">
-        <v>0.01211454035504472</v>
+        <v>0.01159295335515798</v>
       </c>
       <c r="T6">
-        <v>0.01211454035504472</v>
+        <v>0.008039247128125702</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.6458993053057</v>
+        <v>15.19715733333333</v>
       </c>
       <c r="H7">
-        <v>13.6458993053057</v>
+        <v>45.591472</v>
       </c>
       <c r="I7">
-        <v>0.04462883962263146</v>
+        <v>0.04533790728558088</v>
       </c>
       <c r="J7">
-        <v>0.04462883962263146</v>
+        <v>0.0459610730244441</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>202.815059956598</v>
+        <v>203.934102</v>
       </c>
       <c r="N7">
-        <v>202.815059956598</v>
+        <v>611.802306</v>
       </c>
       <c r="O7">
-        <v>0.7227456569861413</v>
+        <v>0.7110513071461264</v>
       </c>
       <c r="P7">
-        <v>0.7227456569861413</v>
+        <v>0.7295999567593805</v>
       </c>
       <c r="Q7">
-        <v>2767.593885767275</v>
+        <v>3099.218633726048</v>
       </c>
       <c r="R7">
-        <v>2767.593885767275</v>
+        <v>27892.96770353443</v>
       </c>
       <c r="S7">
-        <v>0.03225530001358792</v>
+        <v>0.03223757823868217</v>
       </c>
       <c r="T7">
-        <v>0.03225530001358792</v>
+        <v>0.03353319689124915</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.6458993053057</v>
+        <v>15.19715733333333</v>
       </c>
       <c r="H8">
-        <v>13.6458993053057</v>
+        <v>45.591472</v>
       </c>
       <c r="I8">
-        <v>0.04462883962263146</v>
+        <v>0.04533790728558088</v>
       </c>
       <c r="J8">
-        <v>0.04462883962263146</v>
+        <v>0.0459610730244441</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>44.9690538972188</v>
+        <v>48.770495</v>
       </c>
       <c r="N8">
-        <v>44.9690538972188</v>
+        <v>146.311485</v>
       </c>
       <c r="O8">
-        <v>0.1602503700166338</v>
+        <v>0.1700467154822082</v>
       </c>
       <c r="P8">
-        <v>0.1602503700166338</v>
+        <v>0.174482593613174</v>
       </c>
       <c r="Q8">
-        <v>613.6431813363126</v>
+        <v>741.1728857395466</v>
       </c>
       <c r="R8">
-        <v>613.6431813363126</v>
+        <v>6670.55597165592</v>
       </c>
       <c r="S8">
-        <v>0.007151788062939701</v>
+        <v>0.007709562220749904</v>
       </c>
       <c r="T8">
-        <v>0.007151788062939701</v>
+        <v>0.008019407226549495</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.6458993053057</v>
+        <v>15.19715733333333</v>
       </c>
       <c r="H9">
-        <v>13.6458993053057</v>
+        <v>45.591472</v>
       </c>
       <c r="I9">
-        <v>0.04462883962263146</v>
+        <v>0.04533790728558088</v>
       </c>
       <c r="J9">
-        <v>0.04462883962263146</v>
+        <v>0.0459610730244441</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.6495158483243</v>
+        <v>7.225689</v>
       </c>
       <c r="N9">
-        <v>6.6495158483243</v>
+        <v>21.677067</v>
       </c>
       <c r="O9">
-        <v>0.02369601498757222</v>
+        <v>0.02519360694505809</v>
       </c>
       <c r="P9">
-        <v>0.02369601498757222</v>
+        <v>0.02585081322964185</v>
       </c>
       <c r="Q9">
-        <v>90.7386236952678</v>
+        <v>109.809932574736</v>
       </c>
       <c r="R9">
-        <v>90.7386236952678</v>
+        <v>988.2893931726239</v>
       </c>
       <c r="S9">
-        <v>0.001057525652575832</v>
+        <v>0.00114222541586441</v>
       </c>
       <c r="T9">
-        <v>0.001057525652575832</v>
+        <v>0.001188131114588835</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.6458993053057</v>
+        <v>15.19715733333333</v>
       </c>
       <c r="H10">
-        <v>13.6458993053057</v>
+        <v>45.591472</v>
       </c>
       <c r="I10">
-        <v>0.04462883962263146</v>
+        <v>0.04533790728558088</v>
       </c>
       <c r="J10">
-        <v>0.04462883962263146</v>
+        <v>0.0459610730244441</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.72864033924603</v>
+        <v>5.001688666666666</v>
       </c>
       <c r="N10">
-        <v>4.72864033924603</v>
+        <v>15.005066</v>
       </c>
       <c r="O10">
-        <v>0.01685084070862836</v>
+        <v>0.01743924743087499</v>
       </c>
       <c r="P10">
-        <v>0.01685084070862836</v>
+        <v>0.01789417169142159</v>
       </c>
       <c r="Q10">
-        <v>64.52654992035791</v>
+        <v>76.01144959968354</v>
       </c>
       <c r="R10">
-        <v>64.52654992035791</v>
+        <v>684.103046397152</v>
       </c>
       <c r="S10">
-        <v>0.0007520334674918844</v>
+        <v>0.0007906589831513149</v>
       </c>
       <c r="T10">
-        <v>0.0007520334674918844</v>
+        <v>0.0008224353318213681</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.6458993053057</v>
+        <v>15.19715733333333</v>
       </c>
       <c r="H11">
-        <v>13.6458993053057</v>
+        <v>45.591472</v>
       </c>
       <c r="I11">
-        <v>0.04462883962263146</v>
+        <v>0.04533790728558088</v>
       </c>
       <c r="J11">
-        <v>0.04462883962263146</v>
+        <v>0.0459610730244441</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.4552030574335</v>
+        <v>21.8744765</v>
       </c>
       <c r="N11">
-        <v>21.4552030574335</v>
+        <v>43.748953</v>
       </c>
       <c r="O11">
-        <v>0.07645711730102409</v>
+        <v>0.07626912299573232</v>
       </c>
       <c r="P11">
-        <v>0.07645711730102409</v>
+        <v>0.05217246470638207</v>
       </c>
       <c r="Q11">
-        <v>292.7755404966246</v>
+        <v>332.4298609548026</v>
       </c>
       <c r="R11">
-        <v>292.7755404966246</v>
+        <v>1994.579165728816</v>
       </c>
       <c r="S11">
-        <v>0.003412192426036125</v>
+        <v>0.003457882427133077</v>
       </c>
       <c r="T11">
-        <v>0.003412192426036125</v>
+        <v>0.002397902460235259</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>102.976605029442</v>
+        <v>124.2523</v>
       </c>
       <c r="H12">
-        <v>102.976605029442</v>
+        <v>372.7569</v>
       </c>
       <c r="I12">
-        <v>0.3367844279017327</v>
+        <v>0.3706837491945981</v>
       </c>
       <c r="J12">
-        <v>0.3367844279017327</v>
+        <v>0.375778766284743</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>202.815059956598</v>
+        <v>203.934102</v>
       </c>
       <c r="N12">
-        <v>202.815059956598</v>
+        <v>611.802306</v>
       </c>
       <c r="O12">
-        <v>0.7227456569861413</v>
+        <v>0.7110513071461264</v>
       </c>
       <c r="P12">
-        <v>0.7227456569861413</v>
+        <v>0.7295999567593805</v>
       </c>
       <c r="Q12">
-        <v>20885.20632317319</v>
+        <v>25339.2812219346</v>
       </c>
       <c r="R12">
-        <v>20885.20632317319</v>
+        <v>228053.5309974114</v>
       </c>
       <c r="S12">
-        <v>0.2434094826065396</v>
+        <v>0.2635751644026459</v>
       </c>
       <c r="T12">
-        <v>0.2434094826065396</v>
+        <v>0.2741681716324419</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>102.976605029442</v>
+        <v>124.2523</v>
       </c>
       <c r="H13">
-        <v>102.976605029442</v>
+        <v>372.7569</v>
       </c>
       <c r="I13">
-        <v>0.3367844279017327</v>
+        <v>0.3706837491945981</v>
       </c>
       <c r="J13">
-        <v>0.3367844279017327</v>
+        <v>0.375778766284743</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>44.9690538972188</v>
+        <v>48.770495</v>
       </c>
       <c r="N13">
-        <v>44.9690538972188</v>
+        <v>146.311485</v>
       </c>
       <c r="O13">
-        <v>0.1602503700166338</v>
+        <v>0.1700467154822082</v>
       </c>
       <c r="P13">
-        <v>0.1602503700166338</v>
+        <v>0.174482593613174</v>
       </c>
       <c r="Q13">
-        <v>4630.76050172159</v>
+        <v>6059.8461758885</v>
       </c>
       <c r="R13">
-        <v>4630.76050172159</v>
+        <v>54538.6155829965</v>
       </c>
       <c r="S13">
-        <v>0.053969829187093</v>
+        <v>0.06303355403317204</v>
       </c>
       <c r="T13">
-        <v>0.053969829187093</v>
+        <v>0.06556685376612073</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>102.976605029442</v>
+        <v>124.2523</v>
       </c>
       <c r="H14">
-        <v>102.976605029442</v>
+        <v>372.7569</v>
       </c>
       <c r="I14">
-        <v>0.3367844279017327</v>
+        <v>0.3706837491945981</v>
       </c>
       <c r="J14">
-        <v>0.3367844279017327</v>
+        <v>0.375778766284743</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.6495158483243</v>
+        <v>7.225689</v>
       </c>
       <c r="N14">
-        <v>6.6495158483243</v>
+        <v>21.677067</v>
       </c>
       <c r="O14">
-        <v>0.02369601498757222</v>
+        <v>0.02519360694505809</v>
       </c>
       <c r="P14">
-        <v>0.02369601498757222</v>
+        <v>0.02585081322964185</v>
       </c>
       <c r="Q14">
-        <v>684.7445671499064</v>
+        <v>897.8084773346999</v>
       </c>
       <c r="R14">
-        <v>684.7445671499064</v>
+        <v>8080.2762960123</v>
       </c>
       <c r="S14">
-        <v>0.007980448851140395</v>
+        <v>0.0093388606781292</v>
       </c>
       <c r="T14">
-        <v>0.007980448851140395</v>
+        <v>0.00971418670289213</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>102.976605029442</v>
+        <v>124.2523</v>
       </c>
       <c r="H15">
-        <v>102.976605029442</v>
+        <v>372.7569</v>
       </c>
       <c r="I15">
-        <v>0.3367844279017327</v>
+        <v>0.3706837491945981</v>
       </c>
       <c r="J15">
-        <v>0.3367844279017327</v>
+        <v>0.375778766284743</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.72864033924603</v>
+        <v>5.001688666666666</v>
       </c>
       <c r="N15">
-        <v>4.72864033924603</v>
+        <v>15.005066</v>
       </c>
       <c r="O15">
-        <v>0.01685084070862836</v>
+        <v>0.01743924743087499</v>
       </c>
       <c r="P15">
-        <v>0.01685084070862836</v>
+        <v>0.01789417169142159</v>
       </c>
       <c r="Q15">
-        <v>486.939328540825</v>
+        <v>621.4713207172666</v>
       </c>
       <c r="R15">
-        <v>486.939328540825</v>
+        <v>5593.241886455399</v>
       </c>
       <c r="S15">
-        <v>0.005675100747718629</v>
+        <v>0.006464445620809006</v>
       </c>
       <c r="T15">
-        <v>0.005675100747718629</v>
+        <v>0.006724249761889779</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>102.976605029442</v>
+        <v>124.2523</v>
       </c>
       <c r="H16">
-        <v>102.976605029442</v>
+        <v>372.7569</v>
       </c>
       <c r="I16">
-        <v>0.3367844279017327</v>
+        <v>0.3706837491945981</v>
       </c>
       <c r="J16">
-        <v>0.3367844279017327</v>
+        <v>0.375778766284743</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.4552030574335</v>
+        <v>21.8744765</v>
       </c>
       <c r="N16">
-        <v>21.4552030574335</v>
+        <v>43.748953</v>
       </c>
       <c r="O16">
-        <v>0.07645711730102409</v>
+        <v>0.07626912299573232</v>
       </c>
       <c r="P16">
-        <v>0.07645711730102409</v>
+        <v>0.05217246470638207</v>
       </c>
       <c r="Q16">
-        <v>2209.383971071806</v>
+        <v>2717.95401642095</v>
       </c>
       <c r="R16">
-        <v>2209.383971071806</v>
+        <v>16307.7240985257</v>
       </c>
       <c r="S16">
-        <v>0.02574956650924106</v>
+        <v>0.028271724459842</v>
       </c>
       <c r="T16">
-        <v>0.02574956650924106</v>
+        <v>0.01960530442139856</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>129.698528092637</v>
+        <v>131.1635103333333</v>
       </c>
       <c r="H17">
-        <v>129.698528092637</v>
+        <v>393.490531</v>
       </c>
       <c r="I17">
-        <v>0.4241783322618462</v>
+        <v>0.3913020665845575</v>
       </c>
       <c r="J17">
-        <v>0.4241783322618462</v>
+        <v>0.3966804807205673</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>202.815059956598</v>
+        <v>203.934102</v>
       </c>
       <c r="N17">
-        <v>202.815059956598</v>
+        <v>611.802306</v>
       </c>
       <c r="O17">
-        <v>0.7227456569861413</v>
+        <v>0.7110513071461264</v>
       </c>
       <c r="P17">
-        <v>0.7227456569861413</v>
+        <v>0.7295999567593805</v>
       </c>
       <c r="Q17">
-        <v>26304.81475139068</v>
+        <v>26748.71269499606</v>
       </c>
       <c r="R17">
-        <v>26304.81475139068</v>
+        <v>240738.4142549645</v>
       </c>
       <c r="S17">
-        <v>0.3065730474298738</v>
+        <v>0.2782358459339302</v>
       </c>
       <c r="T17">
-        <v>0.3065730474298738</v>
+        <v>0.2894180615810162</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>129.698528092637</v>
+        <v>131.1635103333333</v>
       </c>
       <c r="H18">
-        <v>129.698528092637</v>
+        <v>393.490531</v>
       </c>
       <c r="I18">
-        <v>0.4241783322618462</v>
+        <v>0.3913020665845575</v>
       </c>
       <c r="J18">
-        <v>0.4241783322618462</v>
+        <v>0.3966804807205673</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>44.9690538972188</v>
+        <v>48.770495</v>
       </c>
       <c r="N18">
-        <v>44.9690538972188</v>
+        <v>146.311485</v>
       </c>
       <c r="O18">
-        <v>0.1602503700166338</v>
+        <v>0.1700467154822082</v>
       </c>
       <c r="P18">
-        <v>0.1602503700166338</v>
+        <v>0.174482593613174</v>
       </c>
       <c r="Q18">
-        <v>5832.420100187739</v>
+        <v>6396.909324894283</v>
       </c>
       <c r="R18">
-        <v>5832.420100187739</v>
+        <v>57572.18392404854</v>
       </c>
       <c r="S18">
-        <v>0.0679747346979995</v>
+        <v>0.06653963118410433</v>
       </c>
       <c r="T18">
-        <v>0.0679747346979995</v>
+        <v>0.06921383911184527</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>129.698528092637</v>
+        <v>131.1635103333333</v>
       </c>
       <c r="H19">
-        <v>129.698528092637</v>
+        <v>393.490531</v>
       </c>
       <c r="I19">
-        <v>0.4241783322618462</v>
+        <v>0.3913020665845575</v>
       </c>
       <c r="J19">
-        <v>0.4241783322618462</v>
+        <v>0.3966804807205673</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.6495158483243</v>
+        <v>7.225689</v>
       </c>
       <c r="N19">
-        <v>6.6495158483243</v>
+        <v>21.677067</v>
       </c>
       <c r="O19">
-        <v>0.02369601498757222</v>
+        <v>0.02519360694505809</v>
       </c>
       <c r="P19">
-        <v>0.02369601498757222</v>
+        <v>0.02585081322964185</v>
       </c>
       <c r="Q19">
-        <v>862.4324180563241</v>
+        <v>947.746733816953</v>
       </c>
       <c r="R19">
-        <v>862.4324180563241</v>
+        <v>8529.720604352578</v>
       </c>
       <c r="S19">
-        <v>0.0100513361186801</v>
+        <v>0.009858310462320293</v>
       </c>
       <c r="T19">
-        <v>0.0100513361186801</v>
+        <v>0.01025451301895193</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>129.698528092637</v>
+        <v>131.1635103333333</v>
       </c>
       <c r="H20">
-        <v>129.698528092637</v>
+        <v>393.490531</v>
       </c>
       <c r="I20">
-        <v>0.4241783322618462</v>
+        <v>0.3913020665845575</v>
       </c>
       <c r="J20">
-        <v>0.4241783322618462</v>
+        <v>0.3966804807205673</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.72864033924603</v>
+        <v>5.001688666666666</v>
       </c>
       <c r="N20">
-        <v>4.72864033924603</v>
+        <v>15.005066</v>
       </c>
       <c r="O20">
-        <v>0.01685084070862836</v>
+        <v>0.01743924743087499</v>
       </c>
       <c r="P20">
-        <v>0.01685084070862836</v>
+        <v>0.01789417169142159</v>
       </c>
       <c r="Q20">
-        <v>613.2976918796777</v>
+        <v>656.0390431144496</v>
       </c>
       <c r="R20">
-        <v>613.2976918796777</v>
+        <v>5904.351388030046</v>
       </c>
       <c r="S20">
-        <v>0.007147761508996003</v>
+        <v>0.006824013559380821</v>
       </c>
       <c r="T20">
-        <v>0.007147761508996003</v>
+        <v>0.007098268628649484</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>129.698528092637</v>
+        <v>131.1635103333333</v>
       </c>
       <c r="H21">
-        <v>129.698528092637</v>
+        <v>393.490531</v>
       </c>
       <c r="I21">
-        <v>0.4241783322618462</v>
+        <v>0.3913020665845575</v>
       </c>
       <c r="J21">
-        <v>0.4241783322618462</v>
+        <v>0.3966804807205673</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>21.4552030574335</v>
+        <v>21.8744765</v>
       </c>
       <c r="N21">
-        <v>21.4552030574335</v>
+        <v>43.748953</v>
       </c>
       <c r="O21">
-        <v>0.07645711730102409</v>
+        <v>0.07626912299573232</v>
       </c>
       <c r="P21">
-        <v>0.07645711730102409</v>
+        <v>0.05217246470638207</v>
       </c>
       <c r="Q21">
-        <v>2782.70825647777</v>
+        <v>2869.133124444007</v>
       </c>
       <c r="R21">
-        <v>2782.70825647777</v>
+        <v>17214.79874666404</v>
       </c>
       <c r="S21">
-        <v>0.03243145250629675</v>
+        <v>0.02984426544482186</v>
       </c>
       <c r="T21">
-        <v>0.03243145250629675</v>
+        <v>0.02069579838010447</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>10.9951492009438</v>
+        <v>13.634385</v>
       </c>
       <c r="H22">
-        <v>10.9951492009438</v>
+        <v>27.26877</v>
       </c>
       <c r="I22">
-        <v>0.03595957579175706</v>
+        <v>0.04067566515680266</v>
       </c>
       <c r="J22">
-        <v>0.03595957579175706</v>
+        <v>0.02748983251202704</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>202.815059956598</v>
+        <v>203.934102</v>
       </c>
       <c r="N22">
-        <v>202.815059956598</v>
+        <v>611.802306</v>
       </c>
       <c r="O22">
-        <v>0.7227456569861413</v>
+        <v>0.7110513071461264</v>
       </c>
       <c r="P22">
-        <v>0.7227456569861413</v>
+        <v>0.7295999567593805</v>
       </c>
       <c r="Q22">
-        <v>2229.981844421157</v>
+        <v>2780.51606129727</v>
       </c>
       <c r="R22">
-        <v>2229.981844421157</v>
+        <v>16683.09636778362</v>
       </c>
       <c r="S22">
-        <v>0.0259896272305564</v>
+        <v>0.02892248487878268</v>
       </c>
       <c r="T22">
-        <v>0.0259896272305564</v>
+        <v>0.02005658061209754</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>10.9951492009438</v>
+        <v>13.634385</v>
       </c>
       <c r="H23">
-        <v>10.9951492009438</v>
+        <v>27.26877</v>
       </c>
       <c r="I23">
-        <v>0.03595957579175706</v>
+        <v>0.04067566515680266</v>
       </c>
       <c r="J23">
-        <v>0.03595957579175706</v>
+        <v>0.02748983251202704</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>44.9690538972188</v>
+        <v>48.770495</v>
       </c>
       <c r="N23">
-        <v>44.9690538972188</v>
+        <v>146.311485</v>
       </c>
       <c r="O23">
-        <v>0.1602503700166338</v>
+        <v>0.1700467154822082</v>
       </c>
       <c r="P23">
-        <v>0.1602503700166338</v>
+        <v>0.174482593613174</v>
       </c>
       <c r="Q23">
-        <v>494.4414570252039</v>
+        <v>664.955705470575</v>
       </c>
       <c r="R23">
-        <v>494.4414570252039</v>
+        <v>3989.73423282345</v>
       </c>
       <c r="S23">
-        <v>0.005762535326270257</v>
+        <v>0.006916763259968391</v>
       </c>
       <c r="T23">
-        <v>0.005762535326270257</v>
+        <v>0.004796497274690233</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>10.9951492009438</v>
+        <v>13.634385</v>
       </c>
       <c r="H24">
-        <v>10.9951492009438</v>
+        <v>27.26877</v>
       </c>
       <c r="I24">
-        <v>0.03595957579175706</v>
+        <v>0.04067566515680266</v>
       </c>
       <c r="J24">
-        <v>0.03595957579175706</v>
+        <v>0.02748983251202704</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.6495158483243</v>
+        <v>7.225689</v>
       </c>
       <c r="N24">
-        <v>6.6495158483243</v>
+        <v>21.677067</v>
       </c>
       <c r="O24">
-        <v>0.02369601498757222</v>
+        <v>0.02519360694505809</v>
       </c>
       <c r="P24">
-        <v>0.02369601498757222</v>
+        <v>0.02585081322964185</v>
       </c>
       <c r="Q24">
-        <v>73.11241886636606</v>
+        <v>98.51782571626499</v>
       </c>
       <c r="R24">
-        <v>73.11241886636606</v>
+        <v>591.1069542975901</v>
       </c>
       <c r="S24">
-        <v>0.0008520986469082145</v>
+        <v>0.001024766720189281</v>
       </c>
       <c r="T24">
-        <v>0.0008520986469082145</v>
+        <v>0.0007106345259825473</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>10.9951492009438</v>
+        <v>13.634385</v>
       </c>
       <c r="H25">
-        <v>10.9951492009438</v>
+        <v>27.26877</v>
       </c>
       <c r="I25">
-        <v>0.03595957579175706</v>
+        <v>0.04067566515680266</v>
       </c>
       <c r="J25">
-        <v>0.03595957579175706</v>
+        <v>0.02748983251202704</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.72864033924603</v>
+        <v>5.001688666666666</v>
       </c>
       <c r="N25">
-        <v>4.72864033924603</v>
+        <v>15.005066</v>
       </c>
       <c r="O25">
-        <v>0.01685084070862836</v>
+        <v>0.01743924743087499</v>
       </c>
       <c r="P25">
-        <v>0.01685084070862836</v>
+        <v>0.01789417169142159</v>
       </c>
       <c r="Q25">
-        <v>51.99210604761161</v>
+        <v>68.19494893146999</v>
       </c>
       <c r="R25">
-        <v>51.99210604761161</v>
+        <v>409.16969358882</v>
       </c>
       <c r="S25">
-        <v>0.0006059490836167466</v>
+        <v>0.0007093529890849023</v>
       </c>
       <c r="T25">
-        <v>0.0006059490836167466</v>
+        <v>0.0004919077827386352</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>10.9951492009438</v>
+        <v>13.634385</v>
       </c>
       <c r="H26">
-        <v>10.9951492009438</v>
+        <v>27.26877</v>
       </c>
       <c r="I26">
-        <v>0.03595957579175706</v>
+        <v>0.04067566515680266</v>
       </c>
       <c r="J26">
-        <v>0.03595957579175706</v>
+        <v>0.02748983251202704</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>21.4552030574335</v>
+        <v>21.8744765</v>
       </c>
       <c r="N26">
-        <v>21.4552030574335</v>
+        <v>43.748953</v>
       </c>
       <c r="O26">
-        <v>0.07645711730102409</v>
+        <v>0.07626912299573232</v>
       </c>
       <c r="P26">
-        <v>0.07645711730102409</v>
+        <v>0.05217246470638207</v>
       </c>
       <c r="Q26">
-        <v>235.9031587530269</v>
+        <v>298.2450342744525</v>
       </c>
       <c r="R26">
-        <v>235.9031587530269</v>
+        <v>1192.98013709781</v>
       </c>
       <c r="S26">
-        <v>0.002749365504405435</v>
+        <v>0.003102297308777406</v>
       </c>
       <c r="T26">
-        <v>0.002749365504405435</v>
+        <v>0.001434212316518085</v>
       </c>
     </row>
   </sheetData>
